--- a/library-examples/new_big_file.xlsx
+++ b/library-examples/new_big_file.xlsx
@@ -25,6 +25,9 @@
     <t>Ver 1.54</t>
   </si>
   <si>
+    <t>Change History</t>
+  </si>
+  <si>
     <t>Change Details</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>Trivial change not even worth mentioning 1</t>
   </si>
   <si>
-    <t>二年前</t>
+    <t>two years ago</t>
   </si>
   <si>
     <t>Company A</t>
@@ -55,10 +58,7 @@
     <t>1 years ago</t>
   </si>
   <si>
-    <t>A株式会社</t>
-  </si>
-  <si>
-    <t>書くのに値しないくらい細かいこと</t>
+    <t>Trivial change not even worth mentioning 4</t>
   </si>
   <si>
     <t>6 months ago</t>
@@ -73,7 +73,7 @@
     <t>Trivial change not even worth mentioning 6</t>
   </si>
   <si>
-    <t>先月</t>
+    <t>last month</t>
   </si>
   <si>
     <t>Trivial change not even worth mentioning 7</t>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -628,7 +628,15 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
